--- a/xlsx/可持续发展_intext.xlsx
+++ b/xlsx/可持续发展_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="642">
   <si>
     <t>可持续发展</t>
   </si>
@@ -29,13 +29,13 @@
     <t>西班牙</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_可持续发展</t>
+    <t>政策_政策_混合动力车辆_可持续发展</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%B6%AD%E7%88%BE</t>
   </si>
   <si>
-    <t>西維爾</t>
+    <t>西维尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%9A%E5%85%89%E5%A4%AA%E9%98%B3%E8%83%BD%E7%83%AD%E5%8F%91%E7%94%B5</t>
@@ -59,19 +59,19 @@
     <t>https://zh.wikipedia.org/wiki/PS10%E5%A4%AA%E9%99%BD%E8%83%BD%E7%99%BC%E9%9B%BB%E5%A1%94</t>
   </si>
   <si>
-    <t>PS10太陽能發電塔</t>
+    <t>PS10太阳能发电塔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/PS20%E5%A4%AA%E9%99%BD%E8%83%BD%E7%99%BC%E9%9B%BB%E5%A1%94</t>
   </si>
   <si>
-    <t>PS20太陽能發電塔</t>
+    <t>PS20太阳能发电塔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%AE%E5%AF%AB</t>
   </si>
   <si>
-    <t>縮寫</t>
+    <t>缩写</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%80%AB%E7%89%B9%E8%98%AD%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>布倫特蘭委員會</t>
+    <t>布伦特兰委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%9A%E4%B9%89</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B2%E9%96%8B%E7%99%BC%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>已開發國家</t>
+    <t>已开发国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A5%91%E8%8D%92</t>
   </si>
   <si>
-    <t>饑荒</t>
+    <t>饥荒</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Our_Common_Future</t>
@@ -173,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E5%BB%A2%E6%96%99</t>
   </si>
   <si>
-    <t>核廢料</t>
+    <t>核废料</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BE%E5%B0%84%E6%80%A7</t>
@@ -191,19 +191,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E7%BE%A9</t>
   </si>
   <si>
-    <t>正義</t>
+    <t>正义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>生態系統</t>
+    <t>生态系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8D%E8%A9%B1</t>
   </si>
   <si>
-    <t>對話</t>
+    <t>对话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%8A%80</t>
@@ -215,25 +215,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E8%89%B2%E7%94%9F%E6%B4%BB</t>
   </si>
   <si>
-    <t>綠色生活</t>
+    <t>绿色生活</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>環境教育</t>
+    <t>环境教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E6%A9%9F%E8%80%95%E7%A8%AE</t>
   </si>
   <si>
-    <t>有機耕種</t>
+    <t>有机耕种</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E9%81%8E%E5%89%A9</t>
   </si>
   <si>
-    <t>人口過剩</t>
+    <t>人口过剩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E5%9C%9F%E6%B5%81%E5%A4%B1</t>
@@ -245,19 +245,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E5%AE%A4%E6%95%88%E6%87%89</t>
   </si>
   <si>
-    <t>溫室效應</t>
+    <t>温室效应</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%B9%B3%E8%B2%BF%E6%98%93</t>
   </si>
   <si>
-    <t>公平貿易</t>
+    <t>公平贸易</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%81%E6%A5%AD%E7%A4%BE%E6%9C%83%E8%B2%AC%E4%BB%BB</t>
   </si>
   <si>
-    <t>企業社會責任</t>
+    <t>企业社会责任</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%82%E7%94%A8%E6%8A%80%E6%9C%AF</t>
@@ -281,37 +281,37 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E8%82%B2%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>保育生物學</t>
+    <t>保育生物学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>生態經濟學</t>
+    <t>生态经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E7%8F%BE%E4%BB%A3%E5%8C%96</t>
   </si>
   <si>
-    <t>生態現代化</t>
+    <t>生态现代化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E8%89%B2%E5%BB%BA%E7%AF%89</t>
   </si>
   <si>
-    <t>綠色建築</t>
+    <t>绿色建筑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E5%8A%9B%E7%99%BC%E9%9B%BB</t>
   </si>
   <si>
-    <t>水力發電</t>
+    <t>水力发电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD%E7%94%9F%E6%85%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>工業生態學</t>
+    <t>工业生态学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%9E%E9%95%BF%E7%9A%84%E6%9E%81%E9%99%90</t>
@@ -323,7 +323,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%86%B1%E8%83%BD</t>
   </si>
   <si>
-    <t>地熱能</t>
+    <t>地热能</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E7%8E%AF%E5%A2%83</t>
@@ -341,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E8%89%B2%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>綠色大學</t>
+    <t>绿色大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E7%BB%B4%E6%8C%81%E4%BA%A7%E9%87%8F</t>
@@ -359,7 +359,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E7%B4%84%E7%92%B0%E5%A2%83%E8%88%87%E7%99%BC%E5%B1%95%E5%AE%A3%E8%A8%80</t>
   </si>
   <si>
-    <t>里約環境與發展宣言</t>
+    <t>里约环境与发展宣言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Population_Matters</t>
@@ -371,25 +371,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E8%AE%8A%E6%9A%96</t>
   </si>
   <si>
-    <t>全球變暖</t>
+    <t>全球变暖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A3%E5%80%99%E8%AE%8A%E5%8C%96</t>
   </si>
   <si>
-    <t>氣候變化</t>
+    <t>气候变化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%AE%E5%BA%A6%E6%BA%AB%E5%BA%A6</t>
   </si>
   <si>
-    <t>亮度溫度</t>
+    <t>亮度温度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E6%95%88%E6%BA%AB%E5%BA%A6</t>
   </si>
   <si>
-    <t>有效溫度</t>
+    <t>有效温度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E7%87%83%E6%B2%B9</t>
@@ -419,25 +419,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E8%AE%8A%E6%9A%97</t>
   </si>
   <si>
-    <t>全球變暗</t>
+    <t>全球变暗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E6%9A%96%E5%8C%96%E6%BD%9B%E5%8B%A2</t>
   </si>
   <si>
-    <t>全球暖化潛勢</t>
+    <t>全球暖化潜势</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BC%BB%E5%B0%84%E9%A9%85%E5%8B%95%E5%8A%9B</t>
   </si>
   <si>
-    <t>輻射驅動力</t>
+    <t>辐射驱动力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B3%B6%E6%95%88%E6%87%89</t>
   </si>
   <si>
-    <t>熱島效應</t>
+    <t>热岛效应</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E7%85%A7%E7%8E%87</t>
@@ -455,7 +455,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E6%B2%B3%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>冰河時期</t>
+    <t>冰河时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E5%8F%98%E5%86%B7</t>
@@ -467,13 +467,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E8%98%AD%E7%A7%91%E7%B6%AD%E5%A5%87%E5%BE%AA%E7%92%B0</t>
   </si>
   <si>
-    <t>米蘭科維奇循環</t>
+    <t>米兰科维奇循环</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E9%B9%BD%E7%92%B0%E6%B5%81</t>
   </si>
   <si>
-    <t>溫鹽環流</t>
+    <t>温盐环流</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E5%B0%94%E5%B0%BC%E8%AF%BA-%E5%8D%97%E6%96%B9%E6%8C%AF%E8%8D%A1%E7%8E%B0%E8%B1%A1</t>
@@ -503,19 +503,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E6%BC%A2%E6%A3%AE</t>
   </si>
   <si>
-    <t>詹姆斯·漢森</t>
+    <t>詹姆斯·汉森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E5%80%AB%E7%90%86</t>
   </si>
   <si>
-    <t>環境倫理</t>
+    <t>环境伦理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%A6%E5%AE%9A%E6%B0%A3%E5%80%99%E8%AE%8A%E5%8C%96</t>
   </si>
   <si>
-    <t>否定氣候變化</t>
+    <t>否定气候变化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E5%8F%98%E6%9A%96%E9%98%B4%E8%B0%8B%E8%AE%BA</t>
@@ -527,19 +527,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%96%93%E6%B0%A3%E5%80%99%E8%AE%8A%E5%8C%96%E5%B0%88%E9%96%80%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>政府間氣候變化專門委員會</t>
+    <t>政府间气候变化专门委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%82%BA%E7%A7%91%E5%AD%B8%E9%81%8A%E8%A1%8C</t>
   </si>
   <si>
-    <t>為科學遊行</t>
+    <t>为科学游行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%B0%A3%E5%80%99%E8%AE%8A%E5%8C%96%E6%A1%86%E6%9E%B6%E5%85%AC%E7%B4%84</t>
   </si>
   <si>
-    <t>聯合國氣候變化框架公約</t>
+    <t>联合国气候变化框架公约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BC%BA%E6%B0%A7%E4%BA%8B%E4%BB%B6</t>
@@ -557,7 +557,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%A5%B5%E7%94%B2%E7%83%B7%E9%87%8B%E5%87%BA</t>
   </si>
   <si>
-    <t>北極甲烷釋出</t>
+    <t>北极甲烷释出</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%B9%B3%E9%9D%A2%E4%B8%8A%E5%8D%87</t>
@@ -581,7 +581,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AD%E6%B0%A7%E5%B1%A4%E7%A0%B4%E6%B4%9E</t>
   </si>
   <si>
-    <t>臭氧層破洞</t>
+    <t>臭氧层破洞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%81%E5%9C%B0%E5%B9%B3%E6%B5%81%E5%B1%82%E4%BA%91</t>
@@ -593,13 +593,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%B1%E6%8E%A7%E6%BA%AB%E5%AE%A4%E6%95%88%E6%87%89</t>
   </si>
   <si>
-    <t>失控溫室效應</t>
+    <t>失控温室效应</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%AC%E9%83%BD%E8%AD%B0%E5%AE%9A%E6%9B%B8</t>
   </si>
   <si>
-    <t>京都議定書</t>
+    <t>京都议定书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E6%B4%81%E5%8F%91%E5%B1%95%E6%9C%BA%E5%88%B6</t>
@@ -629,7 +629,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E%E5%8D%94%E5%AE%9A</t>
   </si>
   <si>
-    <t>巴黎協定</t>
+    <t>巴黎协定</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A2%B3%E4%BF%A1%E7%94%A8</t>
@@ -653,13 +653,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A2%B3%E6%94%B6%E9%9B%86%E5%8F%8A%E5%84%B2%E5%AD%98</t>
   </si>
   <si>
-    <t>碳收集及儲存</t>
+    <t>碳收集及储存</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%8E%E7%A2%B3%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>低碳經濟</t>
+    <t>低碳经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E8%83%BD</t>
@@ -671,13 +671,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B0%A1%E5%96%AE%E7%94%9F%E6%B4%BB</t>
   </si>
   <si>
-    <t>簡單生活</t>
+    <t>简单生活</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A2%B3%E5%8C%AF</t>
   </si>
   <si>
-    <t>碳匯</t>
+    <t>碳汇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%94%E5%80%99%E5%B7%A5%E7%A8%8B</t>
@@ -689,7 +689,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E5%9C%B0%E5%BE%A9%E8%82%B2</t>
   </si>
   <si>
-    <t>林地復育</t>
+    <t>林地复育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B0%B4%E6%B7%A1%E5%8C%96</t>
@@ -707,13 +707,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E6%8C%81%E7%BA%8C%E6%80%A7</t>
   </si>
   <si>
-    <t>可持續性</t>
+    <t>可持续性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E5%8F%8B%E5%96%84</t>
   </si>
   <si>
-    <t>環境友善</t>
+    <t>环境友善</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E4%BF%9D%E6%8A%A4%E4%B8%BB%E4%B9%89</t>
@@ -737,13 +737,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E5%8A%83%E7%94%9F%E8%82%B2</t>
   </si>
   <si>
-    <t>計劃生育</t>
+    <t>计划生育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E9%81%8E%E5%A4%9A</t>
   </si>
   <si>
-    <t>人口過多</t>
+    <t>人口过多</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E6%8E%A7%E5%88%B6</t>
@@ -755,49 +755,49 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B2%BB</t>
   </si>
   <si>
-    <t>消費</t>
+    <t>消费</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%B6%88%E8%B2%BB%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>反消費主義</t>
+    <t>反消费主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E8%B6%B3%E8%B7%A1</t>
   </si>
   <si>
-    <t>生態足跡</t>
+    <t>生态足迹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%AF%E7%9F%A5%E6%B6%88%E8%B2%BB</t>
   </si>
   <si>
-    <t>良知消費</t>
+    <t>良知消费</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%8E%E5%BA%A6%E6%B6%88%E8%80%97</t>
   </si>
   <si>
-    <t>過度消耗</t>
+    <t>过度消耗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%9C%B0%E6%82%B2%E5%8A%87</t>
   </si>
   <si>
-    <t>公地悲劇</t>
+    <t>公地悲剧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E7%A7%91%E6%8A%80</t>
   </si>
   <si>
-    <t>環境科技</t>
+    <t>环境科技</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B3%A7%E9%A3%9F%E5%AE%89%E5%85%A8</t>
   </si>
   <si>
-    <t>糧食安全</t>
+    <t>粮食安全</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Local_food</t>
@@ -809,13 +809,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A8%B8%E9%96%80</t>
   </si>
   <si>
-    <t>樸門</t>
+    <t>朴门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E7%BA%8C%E8%BE%B2%E6%A5%AD</t>
   </si>
   <si>
-    <t>永續農業</t>
+    <t>永续农业</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sustainable_fishery</t>
@@ -833,7 +833,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E5%8D%B1%E6%A9%9F</t>
   </si>
   <si>
-    <t>水危機</t>
+    <t>水危机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9C%81%E6%B0%B4%E6%95%88%E7%8E%87</t>
@@ -845,19 +845,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AF%80%E7%B4%84%E7%94%A8%E6%B0%B4</t>
   </si>
   <si>
-    <t>節約用水</t>
+    <t>节约用水</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E8%B3%AA%E7%87%83%E6%96%99</t>
   </si>
   <si>
-    <t>生質燃料</t>
+    <t>生质燃料</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A2%B3%E8%B6%B3%E8%B7%A1</t>
   </si>
   <si>
-    <t>碳足跡</t>
+    <t>碳足迹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%92%E6%B1%A1%E4%BA%A4%E6%98%93</t>
@@ -869,7 +869,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AF%80%E7%B4%84%E8%83%BD%E6%BA%90</t>
   </si>
   <si>
-    <t>節約能源</t>
+    <t>节约能源</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Energy_descent</t>
@@ -887,19 +887,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E6%8C%81%E7%BA%8C%E8%83%BD%E6%BA%90</t>
   </si>
   <si>
-    <t>可持續能源</t>
+    <t>可持续能源</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%99%BD%E8%83%BD</t>
   </si>
   <si>
-    <t>太陽能</t>
+    <t>太阳能</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A2%A8%E8%83%BD</t>
   </si>
   <si>
-    <t>風能</t>
+    <t>风能</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B4%8B%E8%83%BD</t>
@@ -917,7 +917,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%BA%90%E5%9B%9E%E6%94%B6</t>
   </si>
   <si>
-    <t>資源回收</t>
+    <t>资源回收</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9E%83%E5%9C%BE</t>
@@ -929,7 +929,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%A4%9A%E6%A8%A3%E6%80%A7</t>
   </si>
   <si>
-    <t>生物多樣性</t>
+    <t>生物多样性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%9C%88</t>
@@ -941,19 +941,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%80%95%E5%8D%B1%E7%89%A9%E7%A8%AE</t>
   </si>
   <si>
-    <t>瀕危物種</t>
+    <t>濒危物种</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E6%96%B0%E4%B8%96%E6%BB%85%E7%B5%95%E4%BA%8B%E4%BB%B6</t>
   </si>
   <si>
-    <t>全新世滅絕事件</t>
+    <t>全新世灭绝事件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A5%E4%BE%B5%E7%89%A9%E7%A8%AE</t>
   </si>
   <si>
-    <t>入侵物種</t>
+    <t>入侵物种</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%80%81%E5%9F%8E</t>
@@ -965,19 +965,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E7%BA%8C%E8%A8%AD%E8%A8%88</t>
   </si>
   <si>
-    <t>永續設計</t>
+    <t>永续设计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E7%BA%8C%E9%81%8B%E8%BC%B8</t>
   </si>
   <si>
-    <t>永續運輸</t>
+    <t>永续运输</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E8%B3%87%E6%BA%90%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>環境資源管理</t>
+    <t>环境资源管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E5%8C%96%E5%AD%A6</t>
@@ -989,7 +989,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E8%A8%AD%E8%A8%88</t>
   </si>
   <si>
-    <t>環境設計</t>
+    <t>环境设计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -1007,7 +1007,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E5%8F%B2</t>
   </si>
   <si>
-    <t>環境史</t>
+    <t>环境史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E6%B3%95</t>
@@ -1019,7 +1019,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>環境科學</t>
+    <t>环境科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%B1%BB%E7%8E%AF%E5%A2%83%E5%AE%A3%E8%A8%80</t>
@@ -1031,19 +1031,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%83%E9%AB%98%E5%B3%B0%E6%9C%83</t>
   </si>
   <si>
-    <t>地球高峰會</t>
+    <t>地球高峰会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/21%E4%B8%96%E7%B4%80%E8%AD%B0%E7%A8%8B</t>
   </si>
   <si>
-    <t>21世紀議程</t>
+    <t>21世纪议程</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%A4%9A%E6%A8%A3%E6%80%A7%E5%85%AC%E7%B4%84</t>
   </si>
   <si>
-    <t>生物多樣性公約</t>
+    <t>生物多样性公约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%83%E5%AE%AA%E7%AB%A0</t>
@@ -1055,7 +1055,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E7%A6%A7%E5%B9%B4%E7%94%9F%E6%85%8B%E7%B3%BB%E7%B5%B1%E8%A9%95%E4%BC%B0</t>
   </si>
   <si>
-    <t>千禧年生態系統評估</t>
+    <t>千禧年生态系统评估</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9D%8E%E6%98%86%E5%AE%A3%E8%A8%80</t>
@@ -1085,7 +1085,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B0%A3%E6%93%B4%E6%95%A3%E6%A8%A1%E5%BC%8F</t>
   </si>
   <si>
-    <t>大氣擴散模式</t>
+    <t>大气扩散模式</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_solid_waste_treatment_technologies</t>
@@ -1115,19 +1115,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%A1%E6%B0%B4%E8%99%95%E7%90%86</t>
   </si>
   <si>
-    <t>污水處理</t>
+    <t>污水处理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A2%E6%B0%B4%E8%99%95%E7%90%86%E6%8A%80%E8%A1%93%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>廢水處理技術列表</t>
+    <t>废水处理技术列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E6%B7%A8%E5%8C%96</t>
   </si>
   <si>
-    <t>水淨化</t>
+    <t>水净化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%AA%E6%B5%81%E7%AB%99</t>
@@ -1199,13 +1199,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%8B%95%E8%BC%89%E5%85%B7</t>
   </si>
   <si>
-    <t>電動載具</t>
+    <t>电动载具</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E5%90%88%E5%8B%95%E5%8A%9B%E8%BB%8A%E8%BC%9B</t>
   </si>
   <si>
-    <t>混合動力車輛</t>
+    <t>混合动力车辆</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sustainable_architecture</t>
@@ -1217,13 +1217,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E9%83%BD%E5%B8%82%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>新都市主義</t>
+    <t>新都市主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E8%82%B2%E5%80%AB%E7%90%86</t>
   </si>
   <si>
-    <t>保育倫理</t>
+    <t>保育伦理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ecoforestry</t>
@@ -1235,7 +1235,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E7%B6%AD%E8%AD%B7</t>
   </si>
   <si>
-    <t>環境維護</t>
+    <t>环境维护</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Environmental_remediation</t>
@@ -1259,15 +1259,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>生物學</t>
+    <t>生物学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%A1%E5%88%92%E7%94%9F%E8%82%B2</t>
   </si>
   <si>
-    <t>计划生育</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E8%80%81%E5%8C%96</t>
   </si>
   <si>
@@ -1343,7 +1340,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%88%A5%E6%AF%94</t>
   </si>
   <si>
-    <t>性別比</t>
+    <t>性别比</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A2%84%E6%9C%9F%E5%AF%BF%E5%91%BD</t>
@@ -1373,25 +1370,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B1%E5%B1%A4%E7%94%9F%E6%85%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>深層生態學</t>
+    <t>深层生态学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%AE%E9%A3%9F%E5%AE%89%E5%85%A8</t>
   </si>
   <si>
-    <t>粮食安全</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E5%8D%B1%E6%9C%BA</t>
   </si>
   <si>
-    <t>水危机</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A3%B2%E6%81%AF%E5%9C%B0%E7%A0%B4%E5%A3%9E</t>
   </si>
   <si>
-    <t>棲息地破壞</t>
+    <t>栖息地破坏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%83%BD%E6%BA%90%E6%B6%88%E8%80%97%E9%87%8F</t>
@@ -1415,7 +1406,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E9%81%B7%E5%BE%99</t>
   </si>
   <si>
-    <t>人口遷徙</t>
+    <t>人口迁徙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%BF%E8%89%B2%E9%9D%A9%E5%91%BD</t>
@@ -1445,13 +1436,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E6%88%90%E5%B9%B4%E4%BA%BA%E7%95%B6%E4%B8%AD%E8%89%BE%E6%BB%8B%E7%97%85%E6%94%9C%E5%B8%B6%E7%97%85%E6%AF%92%E8%80%85%E6%95%B8%E9%87%8F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國成年人當中艾滋病攜帶病毒者數量列表</t>
+    <t>各国成年人当中艾滋病携带病毒者数量列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%98%E5%AD%97%E7%8E%87</t>
   </si>
   <si>
-    <t>識字率</t>
+    <t>识字率</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E8%90%A5%E5%85%BB%E4%B8%8D%E8%89%AF%E4%BA%BA%E5%8F%A3%E6%AF%94%E4%BE%8B%E5%88%97%E8%A1%A8</t>
@@ -1481,13 +1472,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E5%80%8B%E5%B0%8F%E5%B0%8F%E7%9A%84%E5%BB%BA%E8%AD%B0</t>
   </si>
   <si>
-    <t>一個小小的建議</t>
+    <t>一个小小的建议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E8%AB%96</t>
   </si>
   <si>
-    <t>人口論</t>
+    <t>人口论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/70%E4%BA%BF%E4%BA%BA%E5%8F%A3%E6%97%A5</t>
@@ -1541,7 +1532,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%BF%83%E5%95%86%E5%8B%99%E5%8D%80</t>
   </si>
   <si>
-    <t>中心商務區</t>
+    <t>中心商务区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E6%88%90%E5%8C%BA</t>
@@ -1571,7 +1562,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%8D%80%E6%9B%B4%E6%96%B0</t>
   </si>
   <si>
-    <t>市區更新</t>
+    <t>市区更新</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E9%95%87%E4%BD%93%E7%B3%BB</t>
@@ -1613,7 +1604,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AF%E8%A7%80%E8%A8%AD%E8%A8%88</t>
   </si>
   <si>
-    <t>景觀設計</t>
+    <t>景观设计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E4%BA%A4%E9%80%9A</t>
@@ -1643,13 +1634,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%85%B8%E6%86%B2%E7%AB%A0</t>
   </si>
   <si>
-    <t>雅典憲章</t>
+    <t>雅典宪章</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%84%E5%90%88%E5%9F%8E%E5%B8%82</t>
   </si>
   <si>
-    <t>組合城市</t>
+    <t>组合城市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%A8%E6%88%B7%E5%9F%8E%E5%B8%82</t>
@@ -1661,13 +1652,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E6%98%9F%E5%9F%8E%E5%B8%82</t>
   </si>
   <si>
-    <t>衛星城市</t>
+    <t>卫星城市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%B8%82%E9%8E%AE</t>
   </si>
   <si>
-    <t>新市鎮</t>
+    <t>新市镇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%BB%E9%87%8C%E5%8D%95%E4%BD%8D</t>
@@ -1739,7 +1730,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%99%E5%9F%8E</t>
   </si>
   <si>
-    <t>雙城</t>
+    <t>双城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%BF%83%E5%9C%B0%E7%90%86%E8%AE%BA</t>
@@ -1757,7 +1748,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E5%BD%B1%E9%9F%BF%E8%A9%95%E4%BC%B0</t>
   </si>
   <si>
-    <t>環境影響評估</t>
+    <t>环境影响评估</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E5%B8%82%E6%89%BF%E8%BD%BD%E5%8A%9B</t>
@@ -1805,13 +1796,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B1%8F%E9%A2%A8%E6%A8%93</t>
   </si>
   <si>
-    <t>屏風樓</t>
+    <t>屏风楼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%9B%E5%B0%BE%E5%BB%BA%E7%AF%89</t>
   </si>
   <si>
-    <t>爛尾建築</t>
+    <t>烂尾建筑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E9%80%9A%E5%A0%B5%E5%A1%9E</t>
@@ -1829,13 +1820,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AC%BC%E9%8E%AE</t>
   </si>
   <si>
-    <t>鬼鎮</t>
+    <t>鬼镇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>地理學</t>
+    <t>地理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E7%AD%91%E5%AD%A6</t>
@@ -1871,7 +1862,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>生態學</t>
+    <t>生态学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E5%AD%A6</t>
@@ -1925,7 +1916,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%8D%80%E6%94%B9%E6%AD%A3</t>
   </si>
   <si>
-    <t>市區改正</t>
+    <t>市区改正</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E6%B4%A5%E5%9F%8E%E5%B8%82%E8%A7%84%E5%88%92</t>
@@ -1937,19 +1928,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E6%96%B0%E5%B8%82%E9%8E%AE</t>
   </si>
   <si>
-    <t>香港新市鎮</t>
+    <t>香港新市镇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -6702,7 +6693,7 @@
         <v>304</v>
       </c>
       <c r="G152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H152" t="s">
         <v>4</v>
@@ -8439,7 +8430,7 @@
         <v>415</v>
       </c>
       <c r="F212" t="s">
-        <v>416</v>
+        <v>240</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8494,10 +8485,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
+        <v>416</v>
+      </c>
+      <c r="F214" t="s">
         <v>417</v>
-      </c>
-      <c r="F214" t="s">
-        <v>418</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8523,10 +8514,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
+        <v>418</v>
+      </c>
+      <c r="F215" t="s">
         <v>419</v>
-      </c>
-      <c r="F215" t="s">
-        <v>420</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8552,10 +8543,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
+        <v>420</v>
+      </c>
+      <c r="F216" t="s">
         <v>421</v>
-      </c>
-      <c r="F216" t="s">
-        <v>422</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8581,10 +8572,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
+        <v>422</v>
+      </c>
+      <c r="F217" t="s">
         <v>423</v>
-      </c>
-      <c r="F217" t="s">
-        <v>424</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8610,10 +8601,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
+        <v>424</v>
+      </c>
+      <c r="F218" t="s">
         <v>425</v>
-      </c>
-      <c r="F218" t="s">
-        <v>426</v>
       </c>
       <c r="G218" t="n">
         <v>2</v>
@@ -8639,10 +8630,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
+        <v>426</v>
+      </c>
+      <c r="F219" t="s">
         <v>427</v>
-      </c>
-      <c r="F219" t="s">
-        <v>428</v>
       </c>
       <c r="G219" t="n">
         <v>2</v>
@@ -8668,10 +8659,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
+        <v>428</v>
+      </c>
+      <c r="F220" t="s">
         <v>429</v>
-      </c>
-      <c r="F220" t="s">
-        <v>430</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8697,10 +8688,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
+        <v>430</v>
+      </c>
+      <c r="F221" t="s">
         <v>431</v>
-      </c>
-      <c r="F221" t="s">
-        <v>432</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8726,10 +8717,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
+        <v>432</v>
+      </c>
+      <c r="F222" t="s">
         <v>433</v>
-      </c>
-      <c r="F222" t="s">
-        <v>434</v>
       </c>
       <c r="G222" t="n">
         <v>2</v>
@@ -8755,10 +8746,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
+        <v>434</v>
+      </c>
+      <c r="F223" t="s">
         <v>435</v>
-      </c>
-      <c r="F223" t="s">
-        <v>436</v>
       </c>
       <c r="G223" t="n">
         <v>2</v>
@@ -8784,10 +8775,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
+        <v>436</v>
+      </c>
+      <c r="F224" t="s">
         <v>437</v>
-      </c>
-      <c r="F224" t="s">
-        <v>438</v>
       </c>
       <c r="G224" t="n">
         <v>3</v>
@@ -8813,10 +8804,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
+        <v>438</v>
+      </c>
+      <c r="F225" t="s">
         <v>439</v>
-      </c>
-      <c r="F225" t="s">
-        <v>440</v>
       </c>
       <c r="G225" t="n">
         <v>2</v>
@@ -8842,10 +8833,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
+        <v>440</v>
+      </c>
+      <c r="F226" t="s">
         <v>441</v>
-      </c>
-      <c r="F226" t="s">
-        <v>442</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8871,10 +8862,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
+        <v>442</v>
+      </c>
+      <c r="F227" t="s">
         <v>443</v>
-      </c>
-      <c r="F227" t="s">
-        <v>444</v>
       </c>
       <c r="G227" t="n">
         <v>2</v>
@@ -8900,10 +8891,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
+        <v>444</v>
+      </c>
+      <c r="F228" t="s">
         <v>445</v>
-      </c>
-      <c r="F228" t="s">
-        <v>446</v>
       </c>
       <c r="G228" t="n">
         <v>2</v>
@@ -8929,10 +8920,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
+        <v>446</v>
+      </c>
+      <c r="F229" t="s">
         <v>447</v>
-      </c>
-      <c r="F229" t="s">
-        <v>448</v>
       </c>
       <c r="G229" t="n">
         <v>2</v>
@@ -8958,10 +8949,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
+        <v>448</v>
+      </c>
+      <c r="F230" t="s">
         <v>449</v>
-      </c>
-      <c r="F230" t="s">
-        <v>450</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8987,10 +8978,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
+        <v>450</v>
+      </c>
+      <c r="F231" t="s">
         <v>451</v>
-      </c>
-      <c r="F231" t="s">
-        <v>452</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9016,10 +9007,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F232" t="s">
-        <v>454</v>
+        <v>260</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9045,10 +9036,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F233" t="s">
-        <v>456</v>
+        <v>272</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9074,10 +9065,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F234" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9103,10 +9094,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F235" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9132,10 +9123,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F236" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9161,10 +9152,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F237" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G237" t="n">
         <v>2</v>
@@ -9190,10 +9181,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="F238" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9219,10 +9210,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F239" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9248,10 +9239,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F240" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9277,10 +9268,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F241" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9306,10 +9297,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F242" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9335,10 +9326,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F243" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9364,10 +9355,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F244" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9393,10 +9384,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F245" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9422,10 +9413,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F246" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9451,10 +9442,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F247" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9480,10 +9471,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F248" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9509,10 +9500,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F249" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9538,10 +9529,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F250" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9567,10 +9558,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F251" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9596,10 +9587,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F252" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9625,10 +9616,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F253" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9654,10 +9645,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F254" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9683,10 +9674,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F255" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G255" t="n">
         <v>39</v>
@@ -9712,10 +9703,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F256" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G256" t="n">
         <v>5</v>
@@ -9741,10 +9732,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F257" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G257" t="n">
         <v>2</v>
@@ -9770,10 +9761,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F258" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9799,10 +9790,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F259" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9828,10 +9819,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F260" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9857,10 +9848,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F261" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="G261" t="n">
         <v>4</v>
@@ -9886,10 +9877,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F262" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9915,10 +9906,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F263" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9944,10 +9935,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F264" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -9973,10 +9964,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F265" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="G265" t="n">
         <v>3</v>
@@ -10002,10 +9993,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F266" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10031,10 +10022,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F267" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="G267" t="n">
         <v>5</v>
@@ -10060,10 +10051,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F268" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10089,10 +10080,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F269" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10118,10 +10109,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F270" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10147,10 +10138,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F271" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10176,10 +10167,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F272" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10205,10 +10196,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F273" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10234,10 +10225,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F274" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10263,10 +10254,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F275" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10292,10 +10283,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F276" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10321,10 +10312,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F277" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10350,10 +10341,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F278" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10379,10 +10370,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F279" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10408,10 +10399,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F280" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G280" t="n">
         <v>2</v>
@@ -10437,10 +10428,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F281" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10466,10 +10457,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="F282" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10495,10 +10486,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F283" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10524,10 +10515,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F284" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10553,10 +10544,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="F285" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10582,10 +10573,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F286" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10611,10 +10602,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="F287" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10640,10 +10631,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="F288" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10669,10 +10660,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="F289" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10698,10 +10689,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F290" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10727,10 +10718,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="F291" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10756,10 +10747,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F292" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -10785,10 +10776,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="F293" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -10814,10 +10805,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="F294" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -10843,10 +10834,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="F295" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -10872,10 +10863,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="F296" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -10901,10 +10892,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="F297" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -10930,10 +10921,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="F298" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -10959,10 +10950,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="F299" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -10988,10 +10979,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="F300" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11017,10 +11008,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="F301" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11046,10 +11037,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="F302" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11075,10 +11066,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="F303" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11104,10 +11095,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="F304" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11133,10 +11124,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="F305" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11162,10 +11153,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="F306" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11191,10 +11182,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="F307" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11220,10 +11211,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="F308" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11249,10 +11240,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="F309" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11278,10 +11269,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="F310" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11307,10 +11298,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="F311" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11336,10 +11327,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="F312" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11365,10 +11356,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="F313" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11394,10 +11385,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="F314" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="G314" t="n">
         <v>5</v>
@@ -11423,10 +11414,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="F315" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11452,10 +11443,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="F316" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11481,10 +11472,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="F317" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11510,10 +11501,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="F318" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11539,10 +11530,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F319" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11568,10 +11559,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="F320" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11597,10 +11588,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="F321" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11626,10 +11617,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="F322" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11655,10 +11646,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="F323" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -11684,10 +11675,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="F324" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -11713,10 +11704,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="F325" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -11742,10 +11733,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="F326" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -11771,10 +11762,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="F327" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
